--- a/MouseThalGenes.xlsx
+++ b/MouseThalGenes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\ThalTractSeed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\ThalamicGradients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA9A2AF-33A8-40C8-B284-385221F00780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC3D013-AF2C-4D04-A85E-6BB1CEDD6698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10455" yWindow="2745" windowWidth="17625" windowHeight="16620" xr2:uid="{AC99B1BD-FF2A-4FCC-B7C0-7387C0AFF9FA}"/>
+    <workbookView xWindow="7620" yWindow="4080" windowWidth="17805" windowHeight="16620" xr2:uid="{AC99B1BD-FF2A-4FCC-B7C0-7387C0AFF9FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
   <si>
     <t>Igkc</t>
   </si>
@@ -1537,6 +1537,9 @@
   </si>
   <si>
     <t>Gene Symbol</t>
+  </si>
+  <si>
+    <t>PC1</t>
   </si>
 </sst>
 </file>
@@ -1572,8 +1575,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1888,2517 +1892,4020 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C39CD75-BA2B-413B-8E7F-1B35AA2C1D0B}">
-  <dimension ref="A1:A501"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A501"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>-5.6848651E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>9.6165882999999994E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>6.7812399999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5.5511792999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5.1941065000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6.2313893000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>8.5966011999999994E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6.7492152E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>-9.4932458999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>3.9204792000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>4.5556445000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>-9.4894587000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>5.9949636000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>6.2800653999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.117012229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.117254896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>9.6157093999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>5.1213588999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>4.2780456000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>4.3179763000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>4.9154400000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>9.2927376000000006E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2.5565738000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>-5.4984806999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>9.3809647999999995E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>3.5540024000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3.1201699999999998E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>5.9441148999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>8.4432749000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>6.5443985999999996E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1.0034924000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>-3.7245053E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>4.4331029000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>3.7663026000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>-6.7009589999999994E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>-5.7178179000000003E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>5.2833802999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>5.9586760000000004E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>-6.2062601000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>-2.8787858999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>-4.3213086999999997E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>4.5987619E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>6.0998693E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2.4852312000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>-7.147183E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>-5.0215843000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>3.7913452E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>8.2080747999999995E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>2.8216821999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>-1.5793238000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>4.9704822000000003E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>7.2432380000000005E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>-1.9582250999999998E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>4.0087394999999998E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>3.9627464000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>-6.7744750000000006E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>4.1229505999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>-4.9225341999999998E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>4.6156212000000002E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>2.1029815E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>-7.0286890000000005E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>4.789471E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>-1.8777981999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>5.8418368999999998E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>2.7075661000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>3.1830605999999997E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>2.9176658000000001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>4.2960191000000002E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>-4.9553159999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>1.3352961999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>5.033178E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>2.7067348000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>3.8028180000000002E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>-8.5841693999999996E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>2.0438557999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>2.8429349E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>-5.8626061E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>-4.1545461999999998E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>2.7311208999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>3.0864794000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>-5.8434948E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>-0.10481114900000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>4.9625227000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>-2.9480104E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>3.8382589000000002E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>4.8488120000000003E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>6.5743409000000003E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>1.6408327E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>-4.0616093999999998E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>6.1107647000000001E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>-5.4038264000000003E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>-1.262919E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>-7.6816886000000001E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>-1.6486475E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>-8.5482952000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>0.100194691</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>-7.7301252000000001E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>-4.2803995999999997E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>9.4146009999999999E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>3.775661E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>3.4958617999999997E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>2.9796877999999999E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>4.4697460000000001E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>-9.4062538000000001E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>-9.2159066999999997E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>4.2058956000000002E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>1.4808626E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>4.1605717E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>3.8496992000000001E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>-2.2584404999999998E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>-2.8612403000000002E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>0.10450944500000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>2.3888586999999999E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>1.4247681E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>4.3006255E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>1.6380703999999999E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>-9.5975830999999998E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>9.4492510000000005E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>-3.8914574E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>5.7823213999999998E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>5.4058043E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>2.8420335000000001E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>-2.5829810000000002E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>3.1866527999999998E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>1.0218710000000001E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>3.1195501E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>-5.0532390000000002E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>-4.7326475E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>-4.7065882000000003E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>-4.1122854E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>-7.2848458000000005E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>-4.7594164000000001E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>4.0868314000000003E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>3.7412411999999999E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>7.0903529999999998E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>2.6369994000000001E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>-7.3606790000000002E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>3.0988743999999999E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>3.1048328E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>2.9258843E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>-5.2207451000000002E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>5.3246546999999998E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>3.7646094999999997E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>-4.3296247000000003E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>2.9372689E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>-3.7867091999999998E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>4.0082696000000001E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>7.7077252999999998E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>2.0614908000000001E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>6.2762449999999997E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>3.3934390000000002E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>3.6839362E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>-0.106128537</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>3.3296887999999997E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>6.1154527E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>-3.5423844000000003E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>-7.7279699999999998E-4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>-8.9226389999999996E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>3.509926E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>4.2041778000000002E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>6.2221735E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>1.8902876999999998E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>-7.4595174E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>-4.5870279E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>4.2802304999999999E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>-1.5950426E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>-2.4332882E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>1.8666988999999998E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>2.2574436999999999E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>-2.5345019E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>-2.0179870999999999E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>2.6640302000000001E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>-5.0724271000000001E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>-1.2634173E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>1.6387707000000001E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>-4.7452665999999998E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>4.2818792000000001E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>3.3905576999999999E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>-6.6165646999999994E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>-6.4119382000000003E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>-2.5977803000000001E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>2.2684560999999999E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>-5.7485563000000003E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>8.3677839999999996E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>4.1600109999999999E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>-9.0499759999999995E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>2.1352498000000001E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>5.4083761000000001E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>2.7301919000000001E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>3.0983956E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>7.9525738999999998E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>-5.0454260000000001E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>6.6708599999999998E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>1.4599101E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>-5.4842587999999998E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>-4.0249709999999996E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>1.6492417999999998E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>4.5022751999999999E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>4.7860018999999997E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>2.3721254000000001E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>2.3678035E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>2.6726706999999999E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>2.99794E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>2.1046022000000001E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>4.4806335000000003E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>-6.9518990000000001E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>3.5300181E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>2.7954142000000001E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>-1.4182057E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>-4.8860880000000002E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>-4.7971755999999997E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>-1.3350598999999999E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>-9.4091838999999997E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>1.9441653999999999E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>4.6480168000000002E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>-3.2707704999999997E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>3.0318297000000001E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>1.5690788000000001E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>6.8370838000000003E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>3.8475487000000003E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>-8.4286396999999999E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>-3.9938978E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>3.3745891E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>-8.4905837999999997E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>-6.1775509999999999E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>-3.3873852000000003E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>2.9135753E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>-6.0255244999999999E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>3.6449156000000003E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>-7.1351829999999998E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>2.4959525E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>2.8394559E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>-6.613257E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>-1.5273485E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>3.6944350000000001E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>3.9356033999999998E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>1.7066624999999998E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>-3.7166927000000002E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>-7.3861002999999995E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>-3.2897791000000003E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>6.284207E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>7.938166E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>3.7236603E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>4.6113879000000003E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>-2.5588969E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>-2.173229E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>-4.4516778999999999E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>4.3606230000000003E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>3.0350104999999999E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>-1.1120652E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>-6.3129199999999999E-4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>4.0219070000000003E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>2.3442223000000002E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>9.8440659E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>-3.2701564000000002E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>3.2645272000000003E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>-2.7272698000000001E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>-0.102668461</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>-1.0083949E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>-9.1256863999999993E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>1.5441178E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <v>2.3692120000000001E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B264">
+        <v>2.8714910999999999E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>-1.7322349000000001E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>2.0586833999999998E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <v>-1.3639669E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <v>4.9936882000000002E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <v>8.3780060000000003E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <v>2.359006E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271">
+        <v>4.3560257999999998E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272">
+        <v>-2.9430919999999999E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273">
+        <v>1.8881818000000002E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274">
+        <v>1.9076557000000001E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275">
+        <v>-4.4637427E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276">
+        <v>-6.5527831999999994E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277">
+        <v>4.3016322000000003E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <v>-6.4486135999999999E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279">
+        <v>-5.4987347999999998E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280">
+        <v>-9.7700740000000001E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281">
+        <v>-3.1709769999999998E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282">
+        <v>9.9018760000000004E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283">
+        <v>-0.101834915</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284">
+        <v>-0.13066733699999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285">
+        <v>-4.0821133000000002E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286">
+        <v>2.2270656999999999E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287">
+        <v>-6.4098308000000007E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288">
+        <v>-5.2025848E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <v>4.7410203999999997E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B290">
+        <v>-6.5787329000000005E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291">
+        <v>1.6746436999999999E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292">
+        <v>1.9524377999999998E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293">
+        <v>3.2918081000000002E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294">
+        <v>2.1524989000000001E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295">
+        <v>-5.5696001000000002E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B296">
+        <v>5.0151584999999999E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B297">
+        <v>2.5418248000000001E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B298">
+        <v>3.7711109999999999E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B299">
+        <v>-8.2343457999999994E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B300">
+        <v>3.1031416999999999E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B301">
+        <v>-3.6513281000000002E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B302">
+        <v>1.6374963999999999E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B303">
+        <v>-1.002331E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B304">
+        <v>2.4935816E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B305">
+        <v>-5.3524411000000001E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B306">
+        <v>-1.6004924E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B307">
+        <v>-5.7306957999999998E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B308">
+        <v>3.0956017999999998E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B309">
+        <v>5.4117514999999998E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B310">
+        <v>4.2661927000000002E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B311">
+        <v>-9.7907620000000001E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B312">
+        <v>-1.3562873E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B313">
+        <v>-1.3893188000000001E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B314">
+        <v>2.4282304000000001E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B315">
+        <v>2.5847095E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B316">
+        <v>1.7452214000000001E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B317">
+        <v>1.7887185E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B318">
+        <v>-9.9890880000000001E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B319">
+        <v>-1.5688127999999999E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B320">
+        <v>3.4244219999999999E-3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B321">
+        <v>-3.5801788000000001E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B322">
+        <v>2.0792501000000001E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B323">
+        <v>-2.8703137E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B324">
+        <v>-2.0572139999999999E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B325">
+        <v>1.7959099999999999E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B326">
+        <v>2.5794272E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B327">
+        <v>4.2017361000000003E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B328">
+        <v>5.0461746000000002E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B329">
+        <v>-2.2917333000000002E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B330">
+        <v>-2.8238659999999999E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B331">
+        <v>4.5471720000000004E-3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B332">
+        <v>3.8440253000000001E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B333">
+        <v>3.0940662000000001E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B334">
+        <v>4.2945115999999998E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B335">
+        <v>1.6369456000000001E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B336">
+        <v>5.7913148999999997E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B337">
+        <v>-1.5233549000000001E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338">
+        <v>-2.3410786999999999E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B339">
+        <v>-9.3129168999999998E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340">
+        <v>5.3496910000000002E-3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B341">
+        <v>2.4819870000000001E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B342">
+        <v>-6.5506409000000002E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B343">
+        <v>4.9847420000000003E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B344">
+        <v>4.0033332999999997E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B345">
+        <v>-1.3256963E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B346">
+        <v>3.7014869999999998E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B347">
+        <v>7.5981838999999995E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B348">
+        <v>2.7012391E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B349">
+        <v>9.5828389999999992E-3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B350">
+        <v>3.0205855E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B351">
+        <v>-4.7657668E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B352">
+        <v>3.0969673999999999E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B353">
+        <v>1.7155365999999998E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B354">
+        <v>-3.4443527000000002E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B355">
+        <v>3.4128454000000003E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B356">
+        <v>-1.8844447E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B357">
+        <v>-1.5430266E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B358">
+        <v>2.3683537000000001E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B359">
+        <v>-4.7185983000000001E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B360">
+        <v>3.0494296000000001E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B361">
+        <v>-2.8706410000000002E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B362">
+        <v>-7.2604303999999995E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B363">
+        <v>2.720507E-3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B364">
+        <v>-5.8482889999999996E-3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B365">
+        <v>-6.8697110000000006E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B366">
+        <v>-6.3577483000000004E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B367">
+        <v>-3.6577189000000003E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B368">
+        <v>-1.4454353E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B369">
+        <v>2.0753247999999998E-2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B370">
+        <v>2.8324357000000001E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B371">
+        <v>5.4419644000000003E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B372">
+        <v>4.9997410000000003E-3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B373">
+        <v>-1.344381E-3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B374">
+        <v>-1.6793262E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B375">
+        <v>-7.2014443999999997E-2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B376">
+        <v>2.8042734E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B377">
+        <v>-4.6184562999999998E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B378">
+        <v>-2.8334432999999999E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B379">
+        <v>3.7390192000000003E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B380">
+        <v>2.3964313000000001E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B381">
+        <v>-6.5017614000000001E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B382">
+        <v>-8.9272821000000002E-2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B383">
+        <v>2.3601516999999999E-2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B384">
+        <v>-7.07933E-3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B385">
+        <v>2.0987631999999999E-2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B386">
+        <v>3.6273953999999997E-2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B387">
+        <v>-4.3538936E-2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B388">
+        <v>-6.7153102000000006E-2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B389">
+        <v>3.7204565000000002E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B390">
+        <v>3.0665021000000001E-2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B391">
+        <v>-2.0011415000000001E-2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B392">
+        <v>1.0727805999999999E-2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B393">
+        <v>-3.6869450999999998E-2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B394">
+        <v>-2.9648966999999998E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B395">
+        <v>2.4897239000000002E-2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B396">
+        <v>-5.4027618999999999E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B397">
+        <v>-2.5513866E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B398">
+        <v>2.3173194000000001E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B399">
+        <v>2.2774777E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B400">
+        <v>-2.5642396000000001E-2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B401">
+        <v>-8.1729399999999998E-4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B402">
+        <v>-6.2894374000000003E-2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B403">
+        <v>3.0441848000000001E-2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B404">
+        <v>2.2750300000000001E-2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B405">
+        <v>1.8292625999999999E-2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B406">
+        <v>2.8659878999999999E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B407">
+        <v>-1.9156080999999998E-2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B408">
+        <v>-5.9478294000000001E-2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B409">
+        <v>1.3552267E-2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B410">
+        <v>2.2250437000000001E-2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B411">
+        <v>3.3485154000000003E-2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B412">
+        <v>6.4127000000000003E-3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B413">
+        <v>-6.0553999999999998E-3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B414">
+        <v>-3.4656483000000002E-2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B415">
+        <v>2.7720074000000001E-2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B416">
+        <v>-3.0795850000000001E-3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B417">
+        <v>-1.5288449000000001E-2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B418">
+        <v>-3.9143048999999999E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B419">
+        <v>-3.6340565999999998E-2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B420">
+        <v>3.8940720000000002E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B421">
+        <v>-5.4455578999999997E-2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B422">
+        <v>5.3193630999999998E-2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B423">
+        <v>-9.6992150000000006E-3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B424">
+        <v>3.7959611999999997E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B425">
+        <v>-2.1551888000000002E-2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B426">
+        <v>-2.8312581999999999E-2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B427">
+        <v>-2.6447445999999999E-2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B428">
+        <v>4.2445023999999998E-2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B429">
+        <v>2.3517025E-2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B430">
+        <v>-6.6174328000000004E-2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B431">
+        <v>-1.5319899E-2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B432">
+        <v>4.2256375999999998E-2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B433">
+        <v>1.1770025999999999E-2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B434">
+        <v>2.8690403999999999E-2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B435">
+        <v>1.6093895E-2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B436">
+        <v>-8.1622025000000001E-2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B437">
+        <v>-3.1454014000000002E-2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B438">
+        <v>2.2988044999999999E-2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B439">
+        <v>1.7270455000000001E-2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B440">
+        <v>3.9856398000000001E-2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B441">
+        <v>-2.9749616999999999E-2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B442">
+        <v>-8.5514780999999998E-2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B443">
+        <v>3.1851715000000003E-2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B444">
+        <v>2.3856410000000002E-2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B445">
+        <v>3.3422103000000002E-2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B446">
+        <v>-1.9837193999999999E-2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B447">
+        <v>-6.3079304000000003E-2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B448">
+        <v>-3.7939777000000001E-2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B449">
+        <v>6.5998201000000006E-2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B450">
+        <v>1.7963374000000001E-2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B451">
+        <v>3.3898511999999999E-2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B452">
+        <v>2.6806197E-2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B453">
+        <v>-2.9599714999999999E-2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B454">
+        <v>-6.9267128999999997E-2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B455">
+        <v>1.0850136999999999E-2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B456">
+        <v>-3.6632654000000001E-2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B457">
+        <v>2.7339017E-2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B458">
+        <v>-5.1331667999999997E-2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B459">
+        <v>8.8625869999999999E-3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B460">
+        <v>5.1183331999999998E-2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B461">
+        <v>2.8691246E-2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B462">
+        <v>4.6055870000000004E-3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B463" s="1">
+        <v>-8.2899999999999996E-5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B464">
+        <v>3.8169911000000001E-2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B465">
+        <v>-4.2371859999999997E-2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B466">
+        <v>3.8618097999999997E-2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B467">
+        <v>4.0071845000000002E-2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B468">
+        <v>-3.4221205999999997E-2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B469">
+        <v>1.5052645999999999E-2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B470">
+        <v>-5.8190803999999999E-2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B471">
+        <v>-8.6593089999999998E-2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B472">
+        <v>-4.4568326999999998E-2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B473">
+        <v>9.7664750000000002E-3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B474">
+        <v>2.0058126999999999E-2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B475">
+        <v>1.6116259000000001E-2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B476">
+        <v>2.0343627E-2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B477">
+        <v>2.837924E-2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B478">
+        <v>3.2454218E-2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B479">
+        <v>-3.1389661999999999E-2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B480">
+        <v>-6.8880035000000006E-2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B481">
+        <v>-5.1138271999999999E-2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B482">
+        <v>-7.8767019999999993E-2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B483">
+        <v>1.3888325999999999E-2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B484">
+        <v>5.8122316E-2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B485">
+        <v>-3.8185756000000001E-2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B486">
+        <v>3.9800242E-2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B487">
+        <v>1.3697977E-2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B488">
+        <v>3.1647741E-2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B489">
+        <v>-2.3351589999999998E-3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B490">
+        <v>-1.6768385E-2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B491">
+        <v>-6.2765149999999999E-3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B492">
+        <v>-3.5499435000000003E-2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B493">
+        <v>3.6182612000000003E-2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B494">
+        <v>1.3030104000000001E-2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B495">
+        <v>-1.1456805E-2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B496">
+        <v>5.2566392000000003E-2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B497">
+        <v>-3.1079718999999999E-2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B498">
+        <v>4.4607709999999997E-3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B499">
+        <v>2.2029831E-2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B500">
+        <v>-2.0191994000000001E-2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>499</v>
+      </c>
+      <c r="B501">
+        <v>-2.7518519000000002E-2</v>
       </c>
     </row>
   </sheetData>
